--- a/Technology/Hardware/NXP Semiconductors.xlsx
+++ b/Technology/Hardware/NXP Semiconductors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B3065-04A1-834C-880C-15C064CE6FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CBDA5-EDFE-BF43-8295-83BCC3533BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2323,13 +2323,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>198.28</v>
+    <v>199.55</v>
     <v>132.08000000000001</v>
-    <v>1.5149999999999999</v>
-    <v>2.41</v>
-    <v>1.3774999999999999E-2</v>
-    <v>-2.41</v>
-    <v>-1.3587E-2</v>
+    <v>1.5145</v>
+    <v>1.37</v>
+    <v>7.0879999999999997E-3</v>
     <v>USD</v>
     <v>NXP Semiconductors NV (NXP) is The Netherlands-based holding company. The Company operates as a semiconductor company. The Company provides high performance mixed signal analog-digital (mixed A/D) and standard product solutions. Its product solutions are used in a range of end-market applications, including automotive, personal security and identification, industrial &amp; Internet of Things (IoT), wireless and wireline infrastructure, mobile communications, multi-market industrial, consumer and computing. It engages with global original equipment manufacturers (OEMs). The Company sells products in all geographic regions and countries: China, USA, Japan, Malaysia, South Korea, Germany, The Netherlands, and others.</v>
     <v>34500</v>
@@ -2337,25 +2335,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>High Tech Campus 60, EINDHOVEN, NOORD-BRABANT, 5656AG NL</v>
-    <v>178.07</v>
+    <v>195.58</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45068.875006214847</v>
+    <v>45099.993511909372</v>
     <v>0</v>
-    <v>173.54</v>
-    <v>46070544962</v>
+    <v>190.51</v>
+    <v>50558897090</v>
     <v>NXP Semiconductors NV</v>
     <v>NXP Semiconductors NV</v>
-    <v>174.2</v>
-    <v>16.770499999999998</v>
-    <v>174.96</v>
-    <v>177.37</v>
-    <v>174.96</v>
+    <v>191.4</v>
+    <v>18.657900000000001</v>
+    <v>193.28</v>
+    <v>194.65</v>
     <v>259742600</v>
     <v>NXPI</v>
     <v>NXP Semiconductors NV (XNAS:NXPI)</v>
-    <v>1485421</v>
-    <v>2184850</v>
+    <v>516</v>
+    <v>2515927</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2387,8 +2384,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2409,7 +2404,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2426,7 +2420,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2437,16 +2431,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2512,19 +2503,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2569,9 +2554,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2579,9 +2561,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2943,10 +2922,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q118" sqref="Q1:Y118"/>
+      <selection pane="bottomRight" activeCell="R98" sqref="R98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3992,15 +3971,15 @@
       </c>
       <c r="W16" s="30">
         <f>X101/P3</f>
-        <v>3.4888712580083303</v>
+        <v>3.8287691851571375</v>
       </c>
       <c r="X16" s="30">
         <f>X101/P28</f>
-        <v>16.530514876928596</v>
+        <v>18.140974915679944</v>
       </c>
       <c r="Y16" s="31">
         <f>X101/P106</f>
-        <v>16.267847797316385</v>
+        <v>17.852717899011299</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -8104,7 +8083,7 @@
       </c>
       <c r="X95" s="38" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.5149999999999999</v>
+        <v>1.5145</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8217,7 +8196,7 @@
       </c>
       <c r="X97" s="36">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10617075000000001</v>
+        <v>0.106149225</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8385,7 +8364,7 @@
       </c>
       <c r="X100" s="34">
         <f>X99/X103</f>
-        <v>0.19507108751061428</v>
+        <v>0.18088618065901191</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8442,7 +8421,7 @@
       </c>
       <c r="X101" s="39" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46070544962</v>
+        <v>50558897090</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8499,7 +8478,7 @@
       </c>
       <c r="X102" s="34">
         <f>X101/X103</f>
-        <v>0.8049289124893857</v>
+        <v>0.81911381934098804</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8556,7 +8535,7 @@
       </c>
       <c r="X103" s="40">
         <f>X99+X101</f>
-        <v>57235544962</v>
+        <v>61723897090</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8685,7 +8664,7 @@
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.1746784315824073E-2</v>
+        <v>9.2778014679002471E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8791,7 +8770,7 @@
       <c r="T107" s="42"/>
       <c r="U107" s="45">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>55105285113.608902</v>
+        <v>54266868062.742393</v>
       </c>
       <c r="V107" s="46" t="s">
         <v>148</v>
@@ -8822,7 +8801,7 @@
       </c>
       <c r="U108" s="45">
         <f>U107+U106</f>
-        <v>58693675923.501625</v>
+        <v>57855258872.635117</v>
       </c>
       <c r="V108" s="46" t="s">
         <v>144</v>
@@ -8832,7 +8811,7 @@
       </c>
       <c r="X108" s="50">
         <f>X105</f>
-        <v>9.1746784315824073E-2</v>
+        <v>9.2778014679002471E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8847,7 +8826,7 @@
       </c>
       <c r="R110" s="39">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>48091991472.445564</v>
+        <v>47352079709.131554</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8874,7 +8853,7 @@
       </c>
       <c r="R113" s="39">
         <f>R110+R111-R112</f>
-        <v>40771991472.445564</v>
+        <v>40032079709.131554</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8892,7 +8871,7 @@
       </c>
       <c r="R115" s="54">
         <f>R113/R114</f>
-        <v>208.04910623980882</v>
+        <v>204.2735246335526</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8901,7 +8880,7 @@
       </c>
       <c r="R116" s="55" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>177.37</v>
+        <v>194.65</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
@@ -8910,7 +8889,7 @@
       </c>
       <c r="R117" s="57">
         <f>R115/R116-1</f>
-        <v>0.1729667150014591</v>
+        <v>4.94401471027619E-2</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/NXP Semiconductors.xlsx
+++ b/Technology/Hardware/NXP Semiconductors.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CBDA5-EDFE-BF43-8295-83BCC3533BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29EBAC-C3D4-7347-AF69-3EB8ECC32043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,20 +917,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,74 +931,87 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,9 +1064,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>NXPI</a:t>
+              <a:t>NXP Semiconductors</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1087,8 +1073,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46422109612536044"/>
-          <c:y val="1.8084206187005642E-2"/>
+          <c:x val="0.37445211922767074"/>
+          <c:y val="1.5823680413629939E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1353,11 +1339,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1397,7 +1383,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$P$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$P$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2167,15 +2153,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,6 +2187,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0410000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2323,11 +2373,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>199.55</v>
+    <v>208.63</v>
     <v>132.08000000000001</v>
-    <v>1.5145</v>
-    <v>1.37</v>
-    <v>7.0879999999999997E-3</v>
+    <v>1.5528999999999999</v>
+    <v>-0.31</v>
+    <v>-1.5170000000000001E-3</v>
+    <v>-0.6</v>
+    <v>-2.9399999999999999E-3</v>
     <v>USD</v>
     <v>NXP Semiconductors NV (NXP) is The Netherlands-based holding company. The Company operates as a semiconductor company. The Company provides high performance mixed signal analog-digital (mixed A/D) and standard product solutions. Its product solutions are used in a range of end-market applications, including automotive, personal security and identification, industrial &amp; Internet of Things (IoT), wireless and wireline infrastructure, mobile communications, multi-market industrial, consumer and computing. It engages with global original equipment manufacturers (OEMs). The Company sells products in all geographic regions and countries: China, USA, Japan, Malaysia, South Korea, Germany, The Netherlands, and others.</v>
     <v>34500</v>
@@ -2335,24 +2387,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>High Tech Campus 60, EINDHOVEN, NOORD-BRABANT, 5656AG NL</v>
-    <v>195.58</v>
+    <v>207.66</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.993511909372</v>
+    <v>45114.958361978905</v>
     <v>0</v>
-    <v>190.51</v>
-    <v>50558897090</v>
+    <v>203.53</v>
+    <v>53003070000</v>
     <v>NXP Semiconductors NV</v>
     <v>NXP Semiconductors NV</v>
-    <v>191.4</v>
-    <v>18.657900000000001</v>
-    <v>193.28</v>
-    <v>194.65</v>
+    <v>203.53</v>
+    <v>19.589600000000001</v>
+    <v>204.37</v>
+    <v>204.06</v>
+    <v>203.46</v>
     <v>259742600</v>
     <v>NXPI</v>
     <v>NXP Semiconductors NV (XNAS:NXPI)</v>
-    <v>516</v>
-    <v>2515927</v>
+    <v>1847778</v>
+    <v>2329837</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2384,6 +2437,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2404,6 +2459,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2420,7 +2476,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2431,13 +2487,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2503,13 +2562,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2554,6 +2619,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2561,6 +2629,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2922,10 +2993,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R98" sqref="R98"/>
+      <selection pane="bottomRight" activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2984,19 +3055,19 @@
       <c r="P1" s="8">
         <v>2022</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2023</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2024</v>
       </c>
-      <c r="S1" s="27">
+      <c r="S1" s="23">
         <v>2025</v>
       </c>
-      <c r="T1" s="27">
+      <c r="T1" s="23">
         <v>2026</v>
       </c>
-      <c r="U1" s="27">
+      <c r="U1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3005,58 +3076,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
@@ -3114,37 +3185,37 @@
       <c r="P3" s="1">
         <v>13205000000</v>
       </c>
-      <c r="Q3" s="28">
-        <v>12438000000</v>
-      </c>
-      <c r="R3" s="28">
-        <v>13390000000</v>
-      </c>
-      <c r="S3" s="28">
-        <v>14327000000</v>
-      </c>
-      <c r="T3" s="28">
-        <v>15422000000</v>
-      </c>
-      <c r="U3" s="28">
-        <v>16618000000</v>
+      <c r="Q3" s="24">
+        <v>12997000000</v>
+      </c>
+      <c r="R3" s="24">
+        <v>13830000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>14589000000</v>
+      </c>
+      <c r="T3" s="24">
+        <v>15445000000</v>
+      </c>
+      <c r="U3" s="24">
+        <v>16630000000</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3205,23 +3276,23 @@
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>-5.8084059068534644E-2</v>
+        <v>-1.5751609238924602E-2</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>7.6539636597523719E-2</v>
+        <v>6.4091713472339773E-2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>6.997759522031366E-2</v>
+        <v>5.4880694143166986E-2</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>7.6429119843651749E-2</v>
+        <v>5.8674343683597252E-2</v>
       </c>
       <c r="U4" s="16">
         <f t="shared" si="0"/>
-        <v>7.755154973414613E-2</v>
+        <v>7.6723858853998017E-2</v>
       </c>
       <c r="V4" s="17">
         <f>(P4+O4+N4)/3</f>
@@ -3236,7 +3307,7 @@
         <v>11.561446255405714</v>
       </c>
       <c r="Y4" s="17">
-        <f>(P105+O105+N105)/3</f>
+        <f>(P106+O106+N106)/3</f>
         <v>0.17929221481206747</v>
       </c>
     </row>
@@ -3340,16 +3411,16 @@
         <v>7517000000</v>
       </c>
       <c r="V6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3414,7 +3485,7 @@
         <v>0.21110000000000001</v>
       </c>
       <c r="Y7" s="20">
-        <f>P106/P3</f>
+        <f>P107/P3</f>
         <v>0.21446421809920485</v>
       </c>
     </row>
@@ -3470,7 +3541,7 @@
     </row>
     <row r="9" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3533,16 +3604,16 @@
         <v>0.16266565694812571</v>
       </c>
       <c r="V9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3562,37 +3633,37 @@
         <v>633000000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="17">
         <f>P9</f>
@@ -3608,7 +3679,7 @@
       </c>
       <c r="Y10" s="20">
         <f>P89</f>
-        <v>1.2040893600908747E-2</v>
+        <v>9.4055282090117376E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3628,37 +3699,37 @@
         <v>285000000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="20" x14ac:dyDescent="0.25">
@@ -3711,21 +3782,21 @@
         <v>1066000000</v>
       </c>
       <c r="V12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="Y12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3809,25 +3880,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>223000000</v>
@@ -3904,16 +3975,16 @@
         <v>3214000000</v>
       </c>
       <c r="V15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -3965,24 +4036,24 @@
       <c r="P16" s="1">
         <v>8902000000</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="25">
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>-5.1565463769460876E-2</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="26">
         <f>X101/P3</f>
-        <v>3.8287691851571375</v>
-      </c>
-      <c r="X16" s="30">
+        <v>4.0138636879969711</v>
+      </c>
+      <c r="X16" s="26">
         <f>X101/P28</f>
-        <v>18.140974915679944</v>
-      </c>
-      <c r="Y16" s="31">
-        <f>X101/P106</f>
-        <v>17.852717899011299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>19.017965554359527</v>
+      </c>
+      <c r="Y16" s="27">
+        <f>X101/P107</f>
+        <v>18.715773305084745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +4103,7 @@
         <v>427000000</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4082,10 +4153,19 @@
         <v>1250000000</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4134,14 +4214,41 @@
       <c r="P19" s="10">
         <v>4566000000</v>
       </c>
-      <c r="V19" s="32">
+      <c r="Q19" s="39">
+        <v>5240000000</v>
+      </c>
+      <c r="R19" s="39">
+        <v>5680000000</v>
+      </c>
+      <c r="S19" s="39">
+        <v>5921000000</v>
+      </c>
+      <c r="T19" s="39">
+        <v>6332000000</v>
+      </c>
+      <c r="U19" s="39">
+        <v>6933000000</v>
+      </c>
+      <c r="V19" s="28">
         <f>P40-P56-P61</f>
         <v>-7320000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="34">
+        <f>X101/Q3</f>
+        <v>4.0781003308455794</v>
+      </c>
+      <c r="X19" s="35">
+        <f>R116/Q31</f>
+        <v>15.217002237136466</v>
+      </c>
+      <c r="Y19" s="36">
+        <f>X101/Q106</f>
+        <v>14.3135484742101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4197,11 +4304,31 @@
         <v>0.6274256144890038</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" ref="P20" si="7">(P19/O19)-1</f>
+        <f t="shared" ref="P20:U20" si="7">(P19/O19)-1</f>
         <v>0.20985691573926868</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q20" s="16">
+        <f t="shared" si="7"/>
+        <v>0.14761279018834861</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="7"/>
+        <v>8.3969465648854991E-2</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="7"/>
+        <v>4.2429577464788704E-2</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="7"/>
+        <v>6.9413950346225217E-2</v>
+      </c>
+      <c r="U20" s="16">
+        <f t="shared" si="7"/>
+        <v>9.4914718888186922E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4250,8 +4377,34 @@
       <c r="P21" s="2">
         <v>0.3458</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="40">
+        <f>Q19/Q3</f>
+        <v>0.4031699622989921</v>
+      </c>
+      <c r="R21" s="40">
+        <f t="shared" ref="R21:U21" si="8">R19/R3</f>
+        <v>0.41070137382501809</v>
+      </c>
+      <c r="S21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.40585372540955517</v>
+      </c>
+      <c r="T21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.40997086435739721</v>
+      </c>
+      <c r="U21" s="40">
+        <f t="shared" si="8"/>
+        <v>0.41689717378232111</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4300,8 +4453,16 @@
       <c r="P22" s="10">
         <v>3797000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="X22" s="37">
+        <f>(-1*P98)/X101</f>
+        <v>1.5376467815920851E-2</v>
+      </c>
+      <c r="Y22" s="38">
+        <f>P107/X101</f>
+        <v>5.3430867306365461E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4351,7 +4512,7 @@
         <v>0.28749999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4401,7 +4562,7 @@
         <v>-434000000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4451,7 +4612,7 @@
         <v>3363000000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4501,7 +4662,7 @@
         <v>0.25469999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4551,7 +4712,7 @@
         <v>529000000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4600,10 +4761,25 @@
       <c r="P28" s="11">
         <v>2787000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="41">
+        <v>3482000000</v>
+      </c>
+      <c r="R28" s="41">
+        <v>3732000000</v>
+      </c>
+      <c r="S28" s="41">
+        <v>3960000000</v>
+      </c>
+      <c r="T28" s="41">
+        <v>4364000000</v>
+      </c>
+      <c r="U28" s="41">
+        <v>4822000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4619,51 +4795,71 @@
         <v>-1.8552631578947367</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:L29" si="8">(F28/E28)-1</f>
+        <f t="shared" ref="F29:L29" si="9">(F28/E28)-1</f>
         <v>-1.2948717948717949</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.0260869565217394</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.54885057471264376</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.831168831168831</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.86893840104849285</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.074999999999999</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.1602708803611934E-3</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" ref="M29" si="9">(M28/L28)-1</f>
+        <f t="shared" ref="M29" si="10">(M28/L28)-1</f>
         <v>-0.88994565217391308</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" ref="N29" si="10">(N28/M28)-1</f>
+        <f t="shared" ref="N29" si="11">(N28/M28)-1</f>
         <v>-0.78600823045267487</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" ref="O29" si="11">(O28/N28)-1</f>
+        <f t="shared" ref="O29" si="12">(O28/N28)-1</f>
         <v>34.980769230769234</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29" si="12">(P28/O28)-1</f>
+        <f t="shared" ref="P29:U29" si="13">(P28/O28)-1</f>
         <v>0.48957776590058799</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q29" s="16">
+        <f t="shared" si="13"/>
+        <v>0.24937208467886607</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="13"/>
+        <v>7.179781734635271E-2</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="13"/>
+        <v>6.1093247588424493E-2</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="13"/>
+        <v>0.10202020202020212</v>
+      </c>
+      <c r="U29" s="16">
+        <f t="shared" si="13"/>
+        <v>0.10494958753437222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4712,8 +4908,28 @@
       <c r="P30" s="2">
         <v>0.21110000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="42">
+        <f>Q28/Q3</f>
+        <v>0.26790797876433026</v>
+      </c>
+      <c r="R30" s="42">
+        <f t="shared" ref="R30:U30" si="14">R28/R3</f>
+        <v>0.26984815618221258</v>
+      </c>
+      <c r="S30" s="42">
+        <f t="shared" si="14"/>
+        <v>0.27143738433066006</v>
+      </c>
+      <c r="T30" s="42">
+        <f t="shared" si="14"/>
+        <v>0.28255098737455486</v>
+      </c>
+      <c r="U30" s="42">
+        <f t="shared" si="14"/>
+        <v>0.28995790739627181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4762,8 +4978,23 @@
       <c r="P31" s="12">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q31" s="43">
+        <v>13.41</v>
+      </c>
+      <c r="R31" s="43">
+        <v>14.37</v>
+      </c>
+      <c r="S31" s="43">
+        <v>15.25</v>
+      </c>
+      <c r="T31" s="43">
+        <v>16.8</v>
+      </c>
+      <c r="U31" s="43">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4915,7 +5146,7 @@
     </row>
     <row r="35" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4923,55 +5154,55 @@
         <v>0.19445091837300926</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:L35" si="13">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:L35" si="15">(D34-C34)/C34</f>
         <v>6.51701261776894E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.5188415910676898E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3.0062858704564088E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.8162087203302374E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.5253871789845127E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.0617274515403705E-3</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.35328007804378769</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1641056851721092E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-4.972787895963586E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" ref="M35" si="14">(M34-L34)/L34</f>
+        <f t="shared" ref="M35" si="16">(M34-L34)/L34</f>
         <v>-0.12992763370114971</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" ref="N35" si="15">(N34-M34)/M34</f>
+        <f t="shared" ref="N35" si="17">(N34-M34)/M34</f>
         <v>-7.3519381905558026E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" ref="O35" si="16">(O34-N34)/N34</f>
+        <f t="shared" ref="O35" si="18">(O34-N34)/N34</f>
         <v>-2.8762301406932127E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" ref="P35" si="17">(P34-O34)/O34</f>
+        <f t="shared" ref="P35" si="19">(P34-O34)/O34</f>
         <v>-4.2057566589030856E-2</v>
       </c>
     </row>
@@ -4980,49 +5211,49 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.25">
@@ -5030,49 +5261,49 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5136,43 +5367,43 @@
         <v>144000000</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5651,28 +5882,28 @@
         <v>71000000</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5680,49 +5911,49 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -5830,49 +6061,49 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6013,13 +6244,13 @@
         <v>1107000000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1">
         <v>0</v>
@@ -6030,13 +6261,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1">
         <v>36000000</v>
@@ -6045,34 +6276,34 @@
         <v>29000000</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1">
         <v>82000000</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6080,49 +6311,49 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6280,49 +6511,49 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6330,25 +6561,25 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>2293000000</v>
@@ -6480,49 +6711,49 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6622,7 +6853,7 @@
         <v>56000000</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -6880,49 +7111,49 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="21" x14ac:dyDescent="0.25">
@@ -6930,49 +7161,49 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -7080,16 +7311,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-18000000</v>
@@ -7130,16 +7361,16 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1">
         <v>52000000</v>
@@ -7177,66 +7408,66 @@
     </row>
     <row r="80" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:P80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:P80" si="20">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1932078935291418E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8276220145379024E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.3552328670090314E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.5404032125881002E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.5586439250368501E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.0358686257562661E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.3379398320399704E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.8977131913934891E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4588945657222483E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.1908162342944954E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.7565316168118137E-2</v>
       </c>
     </row>
@@ -7295,10 +7526,10 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1">
         <v>-46000000</v>
@@ -7316,28 +7547,28 @@
         <v>-120000000</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="21" x14ac:dyDescent="0.25">
@@ -7389,20 +7620,20 @@
       <c r="P83" s="1">
         <v>-593000000</v>
       </c>
-      <c r="W83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="X83" s="62"/>
+      <c r="W83" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="X83" s="68"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1">
         <v>60000000</v>
@@ -7420,33 +7651,33 @@
         <v>205000000</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1">
         <v>633000000</v>
       </c>
-      <c r="W84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="X84" s="64"/>
+      <c r="W84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="X84" s="69"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7495,12 +7726,12 @@
         <v>-20000000</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="X85" s="24">
+        <v>91</v>
+      </c>
+      <c r="W85" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="X85" s="45">
         <f>P17</f>
         <v>427000000</v>
       </c>
@@ -7552,12 +7783,12 @@
         <v>33000000</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="X86" s="24">
+        <v>91</v>
+      </c>
+      <c r="W86" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="X86" s="45">
         <f>P56</f>
         <v>0</v>
       </c>
@@ -7611,10 +7842,10 @@
       <c r="P87" s="10">
         <v>3895000000</v>
       </c>
-      <c r="W87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="X87" s="24">
+      <c r="W87" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="X87" s="45">
         <f>P61</f>
         <v>11165000000</v>
       </c>
@@ -7623,127 +7854,127 @@
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>92</v>
+      <c r="B88" s="1">
+        <v>-354000000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-82000000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-218000000</v>
       </c>
       <c r="E88" s="1">
-        <v>-206000000</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>92</v>
+        <v>795000000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-324000000</v>
+      </c>
+      <c r="G88" s="1">
+        <v>-246000000</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-380000000</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-344000000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-445000000</v>
+      </c>
+      <c r="K88" s="1">
+        <v>-610000000</v>
+      </c>
+      <c r="L88" s="1">
+        <v>-660000000</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-605000000</v>
       </c>
       <c r="N88" s="1">
-        <v>-130000000</v>
+        <v>-518000000</v>
       </c>
       <c r="O88" s="1">
-        <v>-132000000</v>
+        <v>-888000000</v>
       </c>
       <c r="P88" s="1">
-        <v>-159000000</v>
-      </c>
-      <c r="W88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="X88" s="34">
+        <v>-1242000000</v>
+      </c>
+      <c r="W88" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="X88" s="47">
         <f>X85/(X86+X87)</f>
         <v>3.8244514106583069E-2</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:P89" si="21">(-1*B88)/B3</f>
+        <v>6.503766305346316E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="21"/>
+        <v>2.1337496747332815E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="21"/>
+        <v>4.9522944116310766E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="21"/>
+        <v>-0.18955650929899856</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="21"/>
+        <v>7.4346030289123455E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="21"/>
+        <v>5.1090342679127723E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="21"/>
+        <v>6.7292367628829466E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="21"/>
+        <v>5.6384199311588265E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="21"/>
+        <v>4.6851968835544322E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="21"/>
+        <v>6.5903197925669829E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="21"/>
+        <v>7.016051876262358E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="21"/>
+        <v>6.8153655514250316E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="21"/>
+        <v>6.0148629818857408E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="21"/>
+        <v>8.0267558528428096E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="21"/>
+        <v>9.4055282090117376E-2</v>
+      </c>
+      <c r="W89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:P89" si="19">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="19"/>
-        <v>4.9117787315212207E-2</v>
-      </c>
-      <c r="F89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M89" s="15" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="19"/>
-        <v>1.5095215977705528E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="19"/>
-        <v>1.1931664105577149E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="19"/>
-        <v>1.2040893600908747E-2</v>
-      </c>
-      <c r="W89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="X89" s="24">
+      <c r="X89" s="45">
         <f>P27</f>
         <v>529000000</v>
       </c>
@@ -7762,7 +7993,7 @@
         <v>-68000000</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>24000000</v>
@@ -7795,12 +8026,12 @@
         <v>-23000000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="W90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="24">
+      <c r="X90" s="45">
         <f>P25</f>
         <v>3363000000</v>
       </c>
@@ -7816,28 +8047,28 @@
         <v>-2000000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1">
         <v>-9000000</v>
@@ -7854,10 +8085,10 @@
       <c r="P91" s="1">
         <v>-20000000</v>
       </c>
-      <c r="W91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="X91" s="34">
+      <c r="W91" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="X91" s="47">
         <f>X89/X90</f>
         <v>0.15730002973535534</v>
       </c>
@@ -7873,10 +8104,10 @@
         <v>21000000</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>12000000</v>
@@ -7885,16 +8116,16 @@
         <v>4000000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>1000000</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1">
         <v>6000000</v>
@@ -7911,10 +8142,10 @@
       <c r="P92" s="1">
         <v>13000000</v>
       </c>
-      <c r="W92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="X92" s="36">
+      <c r="W92" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="X92" s="47">
         <f>X88*(1-X91)</f>
         <v>3.222865090040334E-2</v>
       </c>
@@ -7968,10 +8199,10 @@
       <c r="P93" s="1">
         <v>-1242000000</v>
       </c>
-      <c r="W93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="X93" s="64"/>
+      <c r="W93" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="X93" s="69"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8022,11 +8253,12 @@
       <c r="P94" s="10">
         <v>-1249000000</v>
       </c>
-      <c r="W94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="X94" s="37">
-        <v>4.095E-2</v>
+      <c r="W94" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="X94" s="48">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8076,14 +8308,14 @@
         <v>-1021000000</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="X95" s="38" cm="1">
+        <v>91</v>
+      </c>
+      <c r="W95" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="X95" s="49" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.5145</v>
+        <v>1.5528999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8091,54 +8323,54 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>448000000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1">
         <v>59000000</v>
       </c>
-      <c r="W96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="X96" s="37">
+      <c r="W96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="X96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8147,13 +8379,13 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>-57000000</v>
@@ -8191,12 +8423,12 @@
       <c r="P97" s="1">
         <v>-1426000000</v>
       </c>
-      <c r="W97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="X97" s="36">
+      <c r="W97" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="X97" s="47">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.106149225</v>
+        <v>0.10810091100000001</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8204,34 +8436,34 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1">
         <v>-74000000</v>
@@ -8248,10 +8480,10 @@
       <c r="P98" s="1">
         <v>-815000000</v>
       </c>
-      <c r="W98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="X98" s="64"/>
+      <c r="W98" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="X98" s="69"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8302,10 +8534,10 @@
       <c r="P99" s="1">
         <v>563000000</v>
       </c>
-      <c r="W99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="X99" s="24">
+      <c r="W99" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="X99" s="45">
         <f>X86+X87</f>
         <v>11165000000</v>
       </c>
@@ -8359,12 +8591,12 @@
       <c r="P100" s="10">
         <v>-1619000000</v>
       </c>
-      <c r="W100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="X100" s="34">
+      <c r="W100" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="X100" s="47">
         <f>X99/X103</f>
-        <v>0.18088618065901191</v>
+        <v>0.17399619468062544</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8387,7 +8619,7 @@
         <v>14000000</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1">
         <v>-12000000</v>
@@ -8416,12 +8648,12 @@
       <c r="P101" s="1">
         <v>-12000000</v>
       </c>
-      <c r="W101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="X101" s="39" cm="1">
+      <c r="W101" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="X101" s="50" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>50558897090</v>
+        <v>53003070000</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8473,12 +8705,12 @@
       <c r="P102" s="10">
         <v>1015000000</v>
       </c>
-      <c r="W102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="X102" s="34">
+      <c r="W102" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="X102" s="47">
         <f>X101/X103</f>
-        <v>0.81911381934098804</v>
+        <v>0.82600380531937456</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8530,12 +8762,12 @@
       <c r="P103" s="1">
         <v>2830000000</v>
       </c>
-      <c r="W103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="X103" s="40">
+      <c r="W103" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="X103" s="51">
         <f>X99+X101</f>
-        <v>61723897090</v>
+        <v>64168070000</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8587,316 +8819,375 @@
       <c r="P104" s="11">
         <v>3845000000</v>
       </c>
-      <c r="W104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="X104" s="64"/>
+      <c r="W104" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="X104" s="69"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:O105" si="22">(B22*(1-$X$91))+B77+B88+B81</f>
+        <v>-1109784121.32025</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="22"/>
+        <v>-363429973.23818028</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="22"/>
+        <v>788057091.88224804</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="22"/>
+        <v>1228843889.3844781</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="22"/>
+        <v>578192387.74903369</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="22"/>
+        <v>636597680.64228368</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="22"/>
+        <v>1246992268.8076124</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="22"/>
+        <v>2228040440.0832591</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="22"/>
+        <v>2004595004.4603033</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="22"/>
+        <v>3396355337.4962835</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="22"/>
+        <v>3607716919.4171872</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="22"/>
+        <v>1822170680.9396372</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="22"/>
+        <v>2265248587.5706215</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="22"/>
+        <v>2093694023.1935773</v>
+      </c>
+      <c r="P105" s="1">
+        <f>(P22*(1-$X$91))+P77+P88+P81</f>
+        <v>2891731787.0948563</v>
+      </c>
+      <c r="Q105" s="29">
+        <f>P105*(1+$X$106)</f>
+        <v>3029736217.0845251</v>
+      </c>
+      <c r="R105" s="29">
+        <f t="shared" ref="R105:U105" si="23">Q105*(1+$X$106)</f>
+        <v>3174326742.9153671</v>
+      </c>
+      <c r="S105" s="29">
+        <f t="shared" si="23"/>
+        <v>3325817678.1092911</v>
+      </c>
+      <c r="T105" s="29">
+        <f t="shared" si="23"/>
+        <v>3484538336.4239206</v>
+      </c>
+      <c r="U105" s="29">
+        <f t="shared" si="23"/>
+        <v>3650833747.7208457</v>
+      </c>
+      <c r="V105" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="W105" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="X105" s="53">
+        <f>(X100*X92)+(X102*X97)</f>
+        <v>9.4899426460851533E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:P106" si="24">(C107/B107)-1</f>
         <v>-0.18129218900675026</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f t="shared" si="24"/>
         <v>-1.1224970553592462</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f t="shared" si="24"/>
         <v>-1.3461538461538463</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f t="shared" si="24"/>
         <v>-13.277777777777779</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f t="shared" si="24"/>
         <v>0.45022624434389136</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:L105" si="20">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f t="shared" si="24"/>
         <v>0.72074882995319811</v>
       </c>
-      <c r="I105" s="15">
-        <f t="shared" si="20"/>
+      <c r="I106" s="15">
+        <f t="shared" si="24"/>
         <v>-0.11423390752493201</v>
       </c>
-      <c r="J105" s="15">
-        <f t="shared" si="20"/>
+      <c r="J106" s="15">
+        <f t="shared" si="24"/>
         <v>0.89866939611054253</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="20"/>
+      <c r="K106" s="15">
+        <f t="shared" si="24"/>
         <v>-1.4016172506738589E-2</v>
       </c>
-      <c r="L105" s="15">
-        <f t="shared" si="20"/>
+      <c r="L106" s="15">
+        <f t="shared" si="24"/>
         <v>1.027337342810279</v>
       </c>
-      <c r="M105" s="15">
-        <f t="shared" ref="M105" si="21">(M106/L106)-1</f>
+      <c r="M106" s="15">
+        <f t="shared" si="24"/>
         <v>-0.5293959007551241</v>
       </c>
-      <c r="N105" s="15">
-        <f t="shared" ref="N105" si="22">(N106/M106)-1</f>
+      <c r="N106" s="15">
+        <f t="shared" si="24"/>
         <v>0.12320916905444124</v>
       </c>
-      <c r="O105" s="15">
-        <f t="shared" ref="O105" si="23">(O106/N106)-1</f>
+      <c r="O106" s="15">
+        <f t="shared" si="24"/>
         <v>9.4387755102040893E-2</v>
       </c>
-      <c r="P105" s="15">
-        <f t="shared" ref="P105" si="24">(P106/O106)-1</f>
+      <c r="P106" s="15">
+        <f t="shared" si="24"/>
         <v>0.32027972027972029</v>
       </c>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="X105" s="26">
-        <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2778014679002471E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="Q106" s="33">
+        <v>3703000000</v>
+      </c>
+      <c r="R106" s="33">
+        <v>4133000000</v>
+      </c>
+      <c r="S106" s="33">
+        <v>4261000000</v>
+      </c>
+      <c r="T106" s="33">
+        <v>4630000000</v>
+      </c>
+      <c r="U106" s="33">
+        <v>5089000000</v>
+      </c>
+      <c r="V106" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="W106" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="X106" s="55">
+        <f>(SUM(Q4:U4)/5)</f>
+        <v>4.7723800182835487E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
         <v>-1037000000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-849000000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>104000000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-36000000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>442000000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>641000000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>1103000000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>977000000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>1855000000</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K107" s="1">
         <v>1829000000</v>
       </c>
-      <c r="L106" s="1">
+      <c r="L107" s="1">
         <v>3708000000</v>
       </c>
-      <c r="M106" s="1">
+      <c r="M107" s="1">
         <v>1745000000</v>
       </c>
-      <c r="N106" s="1">
+      <c r="N107" s="1">
         <v>1960000000</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O107" s="1">
         <v>2145000000</v>
       </c>
-      <c r="P106" s="1">
+      <c r="P107" s="1">
         <v>2832000000</v>
       </c>
-      <c r="Q106" s="41">
-        <f>P106*(1+$X$106)</f>
-        <v>2969303200.2940698</v>
-      </c>
-      <c r="R106" s="41">
-        <f t="shared" ref="R106:U106" si="25">Q106*(1+$X$106)</f>
-        <v>3113263239.8575583</v>
-      </c>
-      <c r="S106" s="41">
+      <c r="Q107" s="30"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="65">
+        <f>U106*(1+X107)/(X108-X107)</f>
+        <v>74624718171.635391</v>
+      </c>
+      <c r="V107" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="W107" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="X107" s="57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q108" s="65">
+        <f t="shared" ref="Q108:T108" si="25">Q107+Q106</f>
+        <v>3703000000</v>
+      </c>
+      <c r="R108" s="65">
         <f t="shared" si="25"/>
-        <v>3264202860.6874757</v>
-      </c>
-      <c r="T106" s="41">
+        <v>4133000000</v>
+      </c>
+      <c r="S108" s="65">
         <f t="shared" si="25"/>
-        <v>3422460452.2063484</v>
-      </c>
-      <c r="U106" s="41">
+        <v>4261000000</v>
+      </c>
+      <c r="T108" s="65">
         <f t="shared" si="25"/>
-        <v>3588390809.8927259</v>
-      </c>
-      <c r="V106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="W106" s="43" t="s">
+        <v>4630000000</v>
+      </c>
+      <c r="U108" s="65">
+        <f>U107+U106</f>
+        <v>79713718171.635391</v>
+      </c>
+      <c r="V108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="W108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="X106" s="44">
-        <f>(SUM(Q4:U4)/5)</f>
-        <v>4.8482768465420122E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="45">
-        <f>U106*(1+X107)/(X108-X107)</f>
-        <v>54266868062.742393</v>
-      </c>
-      <c r="V107" s="46" t="s">
+      <c r="X108" s="55">
+        <f>X105</f>
+        <v>9.4899426460851533E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q109" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="W107" s="47" t="s">
+      <c r="R109" s="66"/>
+    </row>
+    <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="X107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="45">
-        <f t="shared" ref="Q108:S108" si="26">Q107+Q106</f>
-        <v>2969303200.2940698</v>
-      </c>
-      <c r="R108" s="45">
-        <f t="shared" si="26"/>
-        <v>3113263239.8575583</v>
-      </c>
-      <c r="S108" s="45">
-        <f t="shared" si="26"/>
-        <v>3264202860.6874757</v>
-      </c>
-      <c r="T108" s="45">
-        <f>T107+T106</f>
-        <v>3422460452.2063484</v>
-      </c>
-      <c r="U108" s="45">
-        <f>U107+U106</f>
-        <v>57855258872.635117</v>
-      </c>
-      <c r="V108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="W108" s="49" t="s">
+      <c r="R110" s="50">
+        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
+        <v>63957260050.278488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="X108" s="50">
-        <f>X105</f>
-        <v>9.2778014679002471E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="R109" s="60"/>
-    </row>
-    <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="R110" s="39">
-        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>47352079709.131554</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="R111" s="39">
+      <c r="R111" s="50">
         <f>P40</f>
         <v>3845000000</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="R112" s="39">
+      <c r="Q112" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="R112" s="50">
         <f>X99</f>
         <v>11165000000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="R113" s="39">
+      <c r="Q113" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="R113" s="50">
         <f>R110+R111-R112</f>
-        <v>40032079709.131554</v>
+        <v>56637260050.278488</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="R114" s="52">
+      <c r="Q114" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="R114" s="59">
         <f>P34*(1+(5*V16))</f>
         <v>195972922.97641274</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="53" t="s">
+      <c r="Q115" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="R115" s="61">
+        <f>R113/R114</f>
+        <v>289.00553806147667</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q116" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="R116" s="62" cm="1">
+        <f t="array" ref="R116">_FV(A1,"Price")</f>
+        <v>204.06</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q117" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="R117" s="63">
+        <f>R115/R116-1</f>
+        <v>0.41627726189099601</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q118" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="R115" s="54">
-        <f>R113/R114</f>
-        <v>204.2735246335526</v>
-      </c>
-    </row>
-    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="R116" s="55" cm="1">
-        <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>194.65</v>
-      </c>
-    </row>
-    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="R117" s="57">
-        <f>R115/R116-1</f>
-        <v>4.94401471027619E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="R118" s="58" t="str">
+      <c r="R118" s="64" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -8943,8 +9234,9 @@
     <hyperlink ref="P36" r:id="rId30" tooltip="https://www.sec.gov/Archives/edgar/data/1413447/000141344723000006/0001413447-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="P74" r:id="rId31" tooltip="https://www.sec.gov/Archives/edgar/data/1413447/000141344723000006/0001413447-23-000006-index.htm" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="Q1" r:id="rId32" display="https://finbox.com/NASDAQGS:NXPI/explorer/revenue_proj" xr:uid="{F44E6E99-1A7B-F145-96D3-62C817A522AF}"/>
+    <hyperlink ref="V106" r:id="rId33" xr:uid="{63D14C84-6248-4E49-8372-9BEAF305CDF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/NXP Semiconductors.xlsx
+++ b/Technology/Hardware/NXP Semiconductors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29EBAC-C3D4-7347-AF69-3EB8ECC32043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B9F20B-DDF2-EB4D-82CB-6FF28F5C9455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -922,12 +922,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,9 +941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +993,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2196,9 +2191,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2207,20 +2200,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.857E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2231,23 +2227,12 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2373,13 +2358,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>208.63</v>
+    <v>224.4</v>
     <v>132.08000000000001</v>
-    <v>1.5528999999999999</v>
-    <v>-0.31</v>
-    <v>-1.5170000000000001E-3</v>
-    <v>-0.6</v>
-    <v>-2.9399999999999999E-3</v>
+    <v>1.5538000000000001</v>
+    <v>9.01</v>
+    <v>4.2726E-2</v>
+    <v>0.05</v>
+    <v>2.274E-4</v>
     <v>USD</v>
     <v>NXP Semiconductors NV (NXP) is The Netherlands-based holding company. The Company operates as a semiconductor company. The Company provides high performance mixed signal analog-digital (mixed A/D) and standard product solutions. Its product solutions are used in a range of end-market applications, including automotive, personal security and identification, industrial &amp; Internet of Things (IoT), wireless and wireline infrastructure, mobile communications, multi-market industrial, consumer and computing. It engages with global original equipment manufacturers (OEMs). The Company sells products in all geographic regions and countries: China, USA, Japan, Malaysia, South Korea, Germany, The Netherlands, and others.</v>
     <v>34500</v>
@@ -2387,25 +2372,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>High Tech Campus 60, EINDHOVEN, NOORD-BRABANT, 5656AG NL</v>
-    <v>207.66</v>
+    <v>222.16</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.958361978905</v>
+    <v>45132.993111596872</v>
     <v>0</v>
-    <v>203.53</v>
-    <v>53003070000</v>
+    <v>216.48</v>
+    <v>57114800314</v>
     <v>NXP Semiconductors NV</v>
     <v>NXP Semiconductors NV</v>
-    <v>203.53</v>
-    <v>19.589600000000001</v>
-    <v>204.37</v>
-    <v>204.06</v>
-    <v>203.46</v>
+    <v>219</v>
+    <v>20.798100000000002</v>
+    <v>210.88</v>
+    <v>219.89</v>
+    <v>219.94</v>
     <v>259742600</v>
     <v>NXPI</v>
     <v>NXP Semiconductors NV (XNAS:NXPI)</v>
-    <v>1847778</v>
-    <v>2329837</v>
+    <v>3839163</v>
+    <v>2445031</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2570,9 +2555,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2993,10 +2978,10 @@
   <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T83" sqref="T83"/>
+      <selection pane="bottomRight" activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3218,59 +3203,59 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="64">
         <f>(C3/B3)-1</f>
         <v>-0.29395553922469231</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="64">
         <f>(D3/C3)-1</f>
         <v>0.14545927660681768</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="64">
         <f>(E3/D3)-1</f>
         <v>-4.725124943207637E-2</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="64">
         <f t="shared" ref="F4:U4" si="0">(F3/E3)-1</f>
         <v>3.91034811635671E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="64">
         <f t="shared" si="0"/>
         <v>0.10486461679669579</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="64">
         <f t="shared" si="0"/>
         <v>0.17279335410176522</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="64">
         <f t="shared" si="0"/>
         <v>8.0396670798654091E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="64">
         <f t="shared" si="0"/>
         <v>0.55679396820193405</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="64">
         <f t="shared" si="0"/>
         <v>-2.5479048220678036E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="64">
         <f t="shared" si="0"/>
         <v>1.6313742437337853E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="64">
         <f t="shared" si="0"/>
         <v>-5.6341022642712901E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="64">
         <f t="shared" si="0"/>
         <v>-2.98524276219444E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="64">
         <f t="shared" si="0"/>
         <v>0.28460287970274045</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="64">
         <f t="shared" si="0"/>
         <v>0.19361836753141093</v>
       </c>
@@ -4040,17 +4025,17 @@
         <f>(P35+O35+N35+M35+L35)/5</f>
         <v>-5.1565463769460876E-2</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="32">
         <f>X101/P3</f>
-        <v>4.0138636879969711</v>
-      </c>
-      <c r="X16" s="26">
+        <v>4.3252404630064367</v>
+      </c>
+      <c r="X16" s="32">
         <f>X101/P28</f>
-        <v>19.017965554359527</v>
-      </c>
-      <c r="Y16" s="27">
+        <v>20.49329038894869</v>
+      </c>
+      <c r="Y16" s="34">
         <f>X101/P107</f>
-        <v>18.715773305084745</v>
+        <v>20.167655478107346</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4214,36 +4199,36 @@
       <c r="P19" s="10">
         <v>4566000000</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="36">
         <v>5240000000</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="36">
         <v>5680000000</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="36">
         <v>5921000000</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="36">
         <v>6332000000</v>
       </c>
-      <c r="U19" s="39">
+      <c r="U19" s="36">
         <v>6933000000</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="26">
         <f>P40-P56-P61</f>
         <v>-7320000000</v>
       </c>
-      <c r="W19" s="34">
+      <c r="W19" s="32">
         <f>X101/Q3</f>
-        <v>4.0781003308455794</v>
-      </c>
-      <c r="X19" s="35">
+        <v>4.3944602842194351</v>
+      </c>
+      <c r="X19" s="33">
         <f>R116/Q31</f>
-        <v>15.217002237136466</v>
-      </c>
-      <c r="Y19" s="36">
+        <v>16.397464578672633</v>
+      </c>
+      <c r="Y19" s="34">
         <f>X101/Q106</f>
-        <v>14.3135484742101</v>
+        <v>15.42392663083986</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,23 +4362,23 @@
       <c r="P21" s="2">
         <v>0.3458</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="37">
         <f>Q19/Q3</f>
         <v>0.4031699622989921</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="37">
         <f t="shared" ref="R21:U21" si="8">R19/R3</f>
         <v>0.41070137382501809</v>
       </c>
-      <c r="S21" s="40">
+      <c r="S21" s="37">
         <f t="shared" si="8"/>
         <v>0.40585372540955517</v>
       </c>
-      <c r="T21" s="40">
+      <c r="T21" s="37">
         <f t="shared" si="8"/>
         <v>0.40997086435739721</v>
       </c>
-      <c r="U21" s="40">
+      <c r="U21" s="37">
         <f t="shared" si="8"/>
         <v>0.41689717378232111</v>
       </c>
@@ -4453,13 +4438,13 @@
       <c r="P22" s="10">
         <v>3797000000</v>
       </c>
-      <c r="X22" s="37">
+      <c r="X22" s="63">
         <f>(-1*P98)/X101</f>
-        <v>1.5376467815920851E-2</v>
-      </c>
-      <c r="Y22" s="38">
+        <v>1.4269506249157399E-2</v>
+      </c>
+      <c r="Y22" s="35">
         <f>P107/X101</f>
-        <v>5.3430867306365461E-2</v>
+        <v>4.9584345641243872E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
@@ -4761,19 +4746,19 @@
       <c r="P28" s="11">
         <v>2787000000</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="38">
         <v>3482000000</v>
       </c>
-      <c r="R28" s="41">
+      <c r="R28" s="38">
         <v>3732000000</v>
       </c>
-      <c r="S28" s="41">
+      <c r="S28" s="38">
         <v>3960000000</v>
       </c>
-      <c r="T28" s="41">
+      <c r="T28" s="38">
         <v>4364000000</v>
       </c>
-      <c r="U28" s="41">
+      <c r="U28" s="38">
         <v>4822000000</v>
       </c>
     </row>
@@ -4908,23 +4893,23 @@
       <c r="P30" s="2">
         <v>0.21110000000000001</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="39">
         <f>Q28/Q3</f>
         <v>0.26790797876433026</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="39">
         <f t="shared" ref="R30:U30" si="14">R28/R3</f>
         <v>0.26984815618221258</v>
       </c>
-      <c r="S30" s="42">
+      <c r="S30" s="39">
         <f t="shared" si="14"/>
         <v>0.27143738433066006</v>
       </c>
-      <c r="T30" s="42">
+      <c r="T30" s="39">
         <f t="shared" si="14"/>
         <v>0.28255098737455486</v>
       </c>
-      <c r="U30" s="42">
+      <c r="U30" s="39">
         <f t="shared" si="14"/>
         <v>0.28995790739627181</v>
       </c>
@@ -4978,19 +4963,19 @@
       <c r="P31" s="12">
         <v>10.64</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="40">
         <v>13.41</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="40">
         <v>14.37</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="40">
         <v>15.25</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="40">
         <v>16.8</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="40">
         <v>18.559999999999999</v>
       </c>
     </row>
@@ -7620,10 +7605,10 @@
       <c r="P83" s="1">
         <v>-593000000</v>
       </c>
-      <c r="W83" s="67" t="s">
+      <c r="W83" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="X83" s="68"/>
+      <c r="X83" s="67"/>
     </row>
     <row r="84" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7674,10 +7659,10 @@
       <c r="P84" s="1">
         <v>633000000</v>
       </c>
-      <c r="W84" s="69" t="s">
+      <c r="W84" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="X84" s="69"/>
+      <c r="X84" s="68"/>
     </row>
     <row r="85" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7728,10 +7713,10 @@
       <c r="P85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W85" s="44" t="s">
+      <c r="W85" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="X85" s="45">
+      <c r="X85" s="42">
         <f>P17</f>
         <v>427000000</v>
       </c>
@@ -7785,10 +7770,10 @@
       <c r="P86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W86" s="44" t="s">
+      <c r="W86" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="X86" s="45">
+      <c r="X86" s="42">
         <f>P56</f>
         <v>0</v>
       </c>
@@ -7842,10 +7827,10 @@
       <c r="P87" s="10">
         <v>3895000000</v>
       </c>
-      <c r="W87" s="44" t="s">
+      <c r="W87" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="X87" s="45">
+      <c r="X87" s="42">
         <f>P61</f>
         <v>11165000000</v>
       </c>
@@ -7899,10 +7884,10 @@
       <c r="P88" s="1">
         <v>-1242000000</v>
       </c>
-      <c r="W88" s="46" t="s">
+      <c r="W88" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="X88" s="47">
+      <c r="X88" s="44">
         <f>X85/(X86+X87)</f>
         <v>3.8244514106583069E-2</v>
       </c>
@@ -7971,10 +7956,10 @@
         <f t="shared" si="21"/>
         <v>9.4055282090117376E-2</v>
       </c>
-      <c r="W89" s="44" t="s">
+      <c r="W89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="X89" s="45">
+      <c r="X89" s="42">
         <f>P27</f>
         <v>529000000</v>
       </c>
@@ -8028,10 +8013,10 @@
       <c r="P90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W90" s="44" t="s">
+      <c r="W90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="45">
+      <c r="X90" s="42">
         <f>P25</f>
         <v>3363000000</v>
       </c>
@@ -8085,10 +8070,10 @@
       <c r="P91" s="1">
         <v>-20000000</v>
       </c>
-      <c r="W91" s="46" t="s">
+      <c r="W91" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="X91" s="47">
+      <c r="X91" s="44">
         <f>X89/X90</f>
         <v>0.15730002973535534</v>
       </c>
@@ -8142,10 +8127,10 @@
       <c r="P92" s="1">
         <v>13000000</v>
       </c>
-      <c r="W92" s="46" t="s">
+      <c r="W92" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="X92" s="47">
+      <c r="X92" s="44">
         <f>X88*(1-X91)</f>
         <v>3.222865090040334E-2</v>
       </c>
@@ -8199,10 +8184,10 @@
       <c r="P93" s="1">
         <v>-1242000000</v>
       </c>
-      <c r="W93" s="69" t="s">
+      <c r="W93" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="X93" s="69"/>
+      <c r="X93" s="68"/>
     </row>
     <row r="94" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8253,12 +8238,12 @@
       <c r="P94" s="10">
         <v>-1249000000</v>
       </c>
-      <c r="W94" s="44" t="s">
+      <c r="W94" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="X94" s="48">
+      <c r="X94" s="45">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>3.857E-2</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8310,12 +8295,12 @@
       <c r="P95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W95" s="44" t="s">
+      <c r="W95" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="X95" s="49" cm="1">
+      <c r="X95" s="46" cm="1">
         <f t="array" ref="X95">_FV(A1,"Beta")</f>
-        <v>1.5528999999999999</v>
+        <v>1.5538000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8367,10 +8352,10 @@
       <c r="P96" s="1">
         <v>59000000</v>
       </c>
-      <c r="W96" s="44" t="s">
+      <c r="W96" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="X96" s="48">
+      <c r="X96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8423,12 +8408,12 @@
       <c r="P97" s="1">
         <v>-1426000000</v>
       </c>
-      <c r="W97" s="46" t="s">
+      <c r="W97" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="X97" s="47">
+      <c r="X97" s="44">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>0.10810091100000001</v>
+        <v>0.10915913400000002</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8480,10 +8465,10 @@
       <c r="P98" s="1">
         <v>-815000000</v>
       </c>
-      <c r="W98" s="69" t="s">
+      <c r="W98" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="X98" s="69"/>
+      <c r="X98" s="68"/>
     </row>
     <row r="99" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8534,10 +8519,10 @@
       <c r="P99" s="1">
         <v>563000000</v>
       </c>
-      <c r="W99" s="44" t="s">
+      <c r="W99" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="X99" s="45">
+      <c r="X99" s="42">
         <f>X86+X87</f>
         <v>11165000000</v>
       </c>
@@ -8591,12 +8576,12 @@
       <c r="P100" s="10">
         <v>-1619000000</v>
       </c>
-      <c r="W100" s="46" t="s">
+      <c r="W100" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="X100" s="47">
+      <c r="X100" s="44">
         <f>X99/X103</f>
-        <v>0.17399619468062544</v>
+        <v>0.16351834581611605</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8648,12 +8633,12 @@
       <c r="P101" s="1">
         <v>-12000000</v>
       </c>
-      <c r="W101" s="44" t="s">
+      <c r="W101" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="X101" s="50" cm="1">
+      <c r="X101" s="47" cm="1">
         <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
-        <v>53003070000</v>
+        <v>57114800314</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8705,12 +8690,12 @@
       <c r="P102" s="10">
         <v>1015000000</v>
       </c>
-      <c r="W102" s="46" t="s">
+      <c r="W102" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="X102" s="47">
+      <c r="X102" s="44">
         <f>X101/X103</f>
-        <v>0.82600380531937456</v>
+        <v>0.83648165418388398</v>
       </c>
     </row>
     <row r="103" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -8762,12 +8747,12 @@
       <c r="P103" s="1">
         <v>2830000000</v>
       </c>
-      <c r="W103" s="46" t="s">
+      <c r="W103" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="X103" s="51">
+      <c r="X103" s="48">
         <f>X99+X101</f>
-        <v>64168070000</v>
+        <v>68279800314</v>
       </c>
     </row>
     <row r="104" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8819,10 +8804,10 @@
       <c r="P104" s="11">
         <v>3845000000</v>
       </c>
-      <c r="W104" s="69" t="s">
+      <c r="W104" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="X104" s="69"/>
+      <c r="X104" s="68"/>
     </row>
     <row r="105" spans="1:24" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8888,35 +8873,35 @@
         <f>(P22*(1-$X$91))+P77+P88+P81</f>
         <v>2891731787.0948563</v>
       </c>
-      <c r="Q105" s="29">
+      <c r="Q105" s="27">
         <f>P105*(1+$X$106)</f>
         <v>3029736217.0845251</v>
       </c>
-      <c r="R105" s="29">
+      <c r="R105" s="27">
         <f t="shared" ref="R105:U105" si="23">Q105*(1+$X$106)</f>
         <v>3174326742.9153671</v>
       </c>
-      <c r="S105" s="29">
+      <c r="S105" s="27">
         <f t="shared" si="23"/>
         <v>3325817678.1092911</v>
       </c>
-      <c r="T105" s="29">
+      <c r="T105" s="27">
         <f t="shared" si="23"/>
         <v>3484538336.4239206</v>
       </c>
-      <c r="U105" s="29">
+      <c r="U105" s="27">
         <f t="shared" si="23"/>
         <v>3650833747.7208457</v>
       </c>
-      <c r="V105" s="30" t="s">
+      <c r="V105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="W105" s="52" t="s">
+      <c r="W105" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="X105" s="53">
+      <c r="X105" s="50">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.4899426460851533E-2</v>
+        <v>9.6579588660719293E-2</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -8980,34 +8965,34 @@
         <f t="shared" si="24"/>
         <v>0.32027972027972029</v>
       </c>
-      <c r="Q106" s="33">
+      <c r="Q106" s="31">
         <v>3703000000</v>
       </c>
-      <c r="R106" s="33">
+      <c r="R106" s="31">
         <v>4133000000</v>
       </c>
-      <c r="S106" s="33">
+      <c r="S106" s="31">
         <v>4261000000</v>
       </c>
-      <c r="T106" s="33">
+      <c r="T106" s="31">
         <v>4630000000</v>
       </c>
-      <c r="U106" s="33">
+      <c r="U106" s="31">
         <v>5089000000</v>
       </c>
-      <c r="V106" s="30" t="s">
+      <c r="V106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="W106" s="54" t="s">
+      <c r="W106" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="X106" s="55">
+      <c r="X106" s="52">
         <f>(SUM(Q4:U4)/5)</f>
         <v>4.7723800182835487E-2</v>
       </c>
     </row>
     <row r="107" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="30" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1">
@@ -9055,139 +9040,139 @@
       <c r="P107" s="1">
         <v>2832000000</v>
       </c>
-      <c r="Q107" s="30"/>
-      <c r="R107" s="30"/>
-      <c r="S107" s="30"/>
-      <c r="T107" s="30"/>
-      <c r="U107" s="65">
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="28"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="62">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>74624718171.635391</v>
-      </c>
-      <c r="V107" s="31" t="s">
+        <v>72873078730.927475</v>
+      </c>
+      <c r="V107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="W107" s="56" t="s">
+      <c r="W107" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="X107" s="57">
+      <c r="X107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="65">
+      <c r="Q108" s="62">
         <f t="shared" ref="Q108:T108" si="25">Q107+Q106</f>
         <v>3703000000</v>
       </c>
-      <c r="R108" s="65">
+      <c r="R108" s="62">
         <f t="shared" si="25"/>
         <v>4133000000</v>
       </c>
-      <c r="S108" s="65">
+      <c r="S108" s="62">
         <f t="shared" si="25"/>
         <v>4261000000</v>
       </c>
-      <c r="T108" s="65">
+      <c r="T108" s="62">
         <f t="shared" si="25"/>
         <v>4630000000</v>
       </c>
-      <c r="U108" s="65">
+      <c r="U108" s="62">
         <f>U107+U106</f>
-        <v>79713718171.635391</v>
-      </c>
-      <c r="V108" s="31" t="s">
+        <v>77962078730.927475</v>
+      </c>
+      <c r="V108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="W108" s="58" t="s">
+      <c r="W108" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="X108" s="55">
+      <c r="X108" s="52">
         <f>X105</f>
-        <v>9.4899426460851533E-2</v>
+        <v>9.6579588660719293E-2</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="66" t="s">
+      <c r="Q109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="R109" s="66"/>
+      <c r="R109" s="65"/>
     </row>
     <row r="110" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="59" t="s">
+      <c r="Q110" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="R110" s="50">
+      <c r="R110" s="47">
         <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>63957260050.278488</v>
+        <v>62415312121.198898</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="59" t="s">
+      <c r="Q111" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="R111" s="50">
+      <c r="R111" s="47">
         <f>P40</f>
         <v>3845000000</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="59" t="s">
+      <c r="Q112" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="R112" s="50">
+      <c r="R112" s="47">
         <f>X99</f>
         <v>11165000000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="59" t="s">
+      <c r="Q113" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="R113" s="50">
+      <c r="R113" s="47">
         <f>R110+R111-R112</f>
-        <v>56637260050.278488</v>
+        <v>55095312121.198898</v>
       </c>
     </row>
     <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="59" t="s">
+      <c r="Q114" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="R114" s="59">
+      <c r="R114" s="56">
         <f>P34*(1+(5*V16))</f>
         <v>195972922.97641274</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="60" t="s">
+      <c r="Q115" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="R115" s="61">
+      <c r="R115" s="58">
         <f>R113/R114</f>
-        <v>289.00553806147667</v>
+        <v>281.13736981833023</v>
       </c>
     </row>
     <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="59" t="s">
+      <c r="Q116" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="R116" s="62" cm="1">
+      <c r="R116" s="59" cm="1">
         <f t="array" ref="R116">_FV(A1,"Price")</f>
-        <v>204.06</v>
+        <v>219.89</v>
       </c>
     </row>
     <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="60" t="s">
+      <c r="Q117" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="R117" s="63">
+      <c r="R117" s="60">
         <f>R115/R116-1</f>
-        <v>0.41627726189099601</v>
+        <v>0.27853640373973465</v>
       </c>
     </row>
     <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="60" t="s">
+      <c r="Q118" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="R118" s="64" t="str">
+      <c r="R118" s="61" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
